--- a/team_specific_matrix/Oregon St._B.xlsx
+++ b/team_specific_matrix/Oregon St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1585365853658537</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="C2">
-        <v>0.573170731707317</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1097560975609756</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1585365853658537</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.26</v>
+        <v>0.2535211267605634</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07792207792207792</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1428571428571428</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2077922077922078</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1038961038961039</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="R6">
-        <v>0.06493506493506493</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="S6">
-        <v>0.4025974025974026</v>
+        <v>0.3679245283018868</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03703703703703703</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03703703703703703</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07407407407407407</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03703703703703703</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2037037037037037</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="R7">
-        <v>0.07407407407407407</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="S7">
-        <v>0.4259259259259259</v>
+        <v>0.4302325581395349</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.136986301369863</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00684931506849315</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0684931506849315</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1232876712328767</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0273972602739726</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1780821917808219</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R8">
-        <v>0.07534246575342465</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="S8">
-        <v>0.3835616438356164</v>
+        <v>0.4052631578947368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05714285714285714</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08571428571428572</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02857142857142857</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02857142857142857</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05714285714285714</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S9">
-        <v>0.4571428571428571</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1130434782608696</v>
+        <v>0.1055776892430279</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04347826086956522</v>
+        <v>0.03784860557768924</v>
       </c>
       <c r="E10">
-        <v>0.002898550724637681</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="F10">
-        <v>0.0782608695652174</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217391304347826</v>
+        <v>0.1215139442231076</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02608695652173913</v>
+        <v>0.0298804780876494</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1594202898550725</v>
+        <v>0.149402390438247</v>
       </c>
       <c r="R10">
-        <v>0.08115942028985507</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="S10">
-        <v>0.3739130434782609</v>
+        <v>0.3964143426294821</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1125</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0375</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="K11">
-        <v>0.15</v>
+        <v>0.1654135338345865</v>
       </c>
       <c r="L11">
-        <v>0.6625</v>
+        <v>0.6165413533834586</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0375</v>
+        <v>0.03007518796992481</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6981132075471698</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2264150943396226</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="K12">
-        <v>0.01886792452830189</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L12">
-        <v>0.03773584905660377</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01886792452830189</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8333333333333334</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01219512195121951</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1951219512195122</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.03658536585365853</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="J15">
-        <v>0.3902439024390244</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.02439024390243903</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01219512195121951</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07317073170731707</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2560975609756098</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01785714285714286</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2857142857142857</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="I16">
-        <v>0.05357142857142857</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J16">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05357142857142857</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03773584905660377</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2830188679245283</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="I17">
-        <v>0.03773584905660377</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="J17">
-        <v>0.3018867924528302</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="K17">
-        <v>0.09433962264150944</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03773584905660377</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08490566037735849</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1226415094339623</v>
+        <v>0.158273381294964</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03773584905660377</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1886792452830189</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="I18">
-        <v>0.01886792452830189</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J18">
-        <v>0.4905660377358491</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="K18">
-        <v>0.1132075471698113</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07547169811320754</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02173913043478261</v>
+        <v>0.02554744525547445</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2010869565217391</v>
+        <v>0.1934306569343066</v>
       </c>
       <c r="I19">
-        <v>0.0625</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="J19">
-        <v>0.3858695652173913</v>
+        <v>0.3759124087591241</v>
       </c>
       <c r="K19">
-        <v>0.1195652173913044</v>
+        <v>0.1441605839416058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01902173913043478</v>
+        <v>0.02372262773722628</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001824817518248175</v>
       </c>
       <c r="O19">
-        <v>0.09782608695652174</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09239130434782608</v>
+        <v>0.08941605839416059</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oregon St._B.xlsx
+++ b/team_specific_matrix/Oregon St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1565217391304348</v>
+        <v>0.194078947368421</v>
       </c>
       <c r="C2">
-        <v>0.591304347826087</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008695652173913044</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09565217391304348</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1478260869565217</v>
+        <v>0.1118421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="C3">
-        <v>0.04225352112676056</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01408450704225352</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.676056338028169</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2535211267605634</v>
+        <v>0.2146892655367232</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.68</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07547169811320754</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1320754716981132</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2452830188679245</v>
+        <v>0.2862903225806452</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1037735849056604</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="R6">
-        <v>0.05660377358490566</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="S6">
-        <v>0.3679245283018868</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03488372093023256</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F7">
-        <v>0.05813953488372093</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1395348837209302</v>
+        <v>0.1370558375634518</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02325581395348837</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1744186046511628</v>
+        <v>0.1979695431472081</v>
       </c>
       <c r="R7">
-        <v>0.1162790697674419</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="S7">
-        <v>0.4302325581395349</v>
+        <v>0.3807106598984771</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1368421052631579</v>
+        <v>0.1123853211009174</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005263157894736842</v>
+        <v>0.01605504587155963</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06842105263157895</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1210526315789474</v>
+        <v>0.1353211009174312</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03684210526315789</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1578947368421053</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="R8">
-        <v>0.06842105263157895</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="S8">
-        <v>0.4052631578947368</v>
+        <v>0.4105504587155963</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08620689655172414</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05172413793103448</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="F9">
-        <v>0.03448275862068965</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08620689655172414</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1206896551724138</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="R9">
-        <v>0.103448275862069</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="S9">
-        <v>0.4827586206896552</v>
+        <v>0.4518072289156627</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1055776892430279</v>
+        <v>0.1209150326797386</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03784860557768924</v>
+        <v>0.03594771241830065</v>
       </c>
       <c r="E10">
-        <v>0.00398406374501992</v>
+        <v>0.001633986928104575</v>
       </c>
       <c r="F10">
-        <v>0.07171314741035857</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215139442231076</v>
+        <v>0.1184640522875817</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0298804780876494</v>
+        <v>0.02369281045751634</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.149402390438247</v>
+        <v>0.1977124183006536</v>
       </c>
       <c r="R10">
-        <v>0.08366533864541832</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="S10">
-        <v>0.3964143426294821</v>
+        <v>0.3513071895424836</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1203007518796992</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06766917293233082</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="K11">
-        <v>0.1654135338345865</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L11">
-        <v>0.6165413533834586</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03007518796992481</v>
+        <v>0.01623376623376623</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7317073170731707</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2073170731707317</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K12">
-        <v>0.01219512195121951</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="L12">
-        <v>0.02439024390243903</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02439024390243903</v>
+        <v>0.03723404255319149</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7368421052631579</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008771929824561403</v>
+        <v>0.02952029520295203</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1955719557195572</v>
       </c>
       <c r="I15">
-        <v>0.03508771929824561</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3136531365313653</v>
       </c>
       <c r="K15">
-        <v>0.03508771929824561</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02631578947368421</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1140350877192982</v>
+        <v>0.1254612546125461</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2807017543859649</v>
+        <v>0.2066420664206642</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02666666666666667</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2533333333333334</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="J16">
-        <v>0.32</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1066666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05333333333333334</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1733333333333333</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02877697841726619</v>
+        <v>0.04106280193236715</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2446043165467626</v>
+        <v>0.2053140096618357</v>
       </c>
       <c r="I17">
-        <v>0.04316546762589928</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="J17">
-        <v>0.3381294964028777</v>
+        <v>0.4009661835748792</v>
       </c>
       <c r="K17">
-        <v>0.08633093525179857</v>
+        <v>0.08454106280193237</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02877697841726619</v>
+        <v>0.01690821256038647</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="O17">
-        <v>0.07194244604316546</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.158273381294964</v>
+        <v>0.1038647342995169</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05194805194805195</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1688311688311688</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="I18">
-        <v>0.07792207792207792</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.4415584415584415</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="K18">
-        <v>0.1168831168831169</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05194805194805195</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08021390374331551</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02554744525547445</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1934306569343066</v>
+        <v>0.1925675675675676</v>
       </c>
       <c r="I19">
-        <v>0.06569343065693431</v>
+        <v>0.07094594594594594</v>
       </c>
       <c r="J19">
-        <v>0.3759124087591241</v>
+        <v>0.3724662162162162</v>
       </c>
       <c r="K19">
-        <v>0.1441605839416058</v>
+        <v>0.1342905405405405</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02372262773722628</v>
+        <v>0.02280405405405405</v>
       </c>
       <c r="N19">
-        <v>0.001824817518248175</v>
+        <v>0.0008445945945945946</v>
       </c>
       <c r="O19">
-        <v>0.08029197080291971</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08941605839416059</v>
+        <v>0.09797297297297297</v>
       </c>
     </row>
   </sheetData>
